--- a/MRB/RobotA/bom_andprice_typeA.xlsx
+++ b/MRB/RobotA/bom_andprice_typeA.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Dhamdhawach Horsuwan - มุมมองส่วนบุคคล" guid="{DDE6B254-1806-443C-B54D-6572A60698CE}" mergeInterval="0" personalView="1" xWindow="148" yWindow="148" windowWidth="1440" windowHeight="829" activeSheetId="1"/>
     <customWorkbookView name="Windows User - มุมมองส่วนบุคคล" guid="{F9AACD21-9FFA-4BD3-9A49-A65456E0538E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Dhamdhawach Horsuwan - มุมมองส่วนบุคคล" guid="{DDE6B254-1806-443C-B54D-6572A60698CE}" mergeInterval="0" personalView="1" xWindow="148" yWindow="148" windowWidth="1440" windowHeight="829" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ITEM NO.</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>//3D printed part</t>
+  </si>
+  <si>
+    <t>ระบบไฟฟ้า</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1EDE486C-71CA-4FD7-9945-39D843E82F47}" diskRevisions="1" revisionId="61" version="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AC0FDF85-9957-41E2-9061-6B2F01D6E894}" diskRevisions="1" revisionId="72" version="4">
   <header guid="{75BD7DAF-1691-4E6B-BECB-207B711AE5E2}" dateTime="2018-06-01T17:56:51" maxSheetId="2" userName="Dhamdhawach Horsuwan" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -181,6 +184,11 @@
     </sheetIdMap>
   </header>
   <header guid="{1EDE486C-71CA-4FD7-9945-39D843E82F47}" dateTime="2018-06-02T20:39:54" maxSheetId="2" userName="Windows User" r:id="rId4" minRId="61">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AC0FDF85-9957-41E2-9061-6B2F01D6E894}" dateTime="2018-06-03T00:02:38" maxSheetId="2" userName="Windows User" r:id="rId5" minRId="62" maxRId="72">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -551,10 +559,65 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="62" sId="1">
+    <oc r="G6">
+      <v>1000</v>
+    </oc>
+    <nc r="G6">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rrc rId="63" sId="1" eol="1" ref="A20:XFD20" action="insertRow"/>
+  <rcc rId="64" sId="1">
+    <nc r="G20" t="inlineStr">
+      <is>
+        <t>ระบบไฟฟ้า</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="65" sId="1">
+    <nc r="H20">
+      <v>6900</v>
+    </nc>
+  </rcc>
+  <rrc rId="66" sId="1" eol="1" ref="A21:XFD21" action="insertRow"/>
+  <rcc rId="67" sId="1">
+    <nc r="H21">
+      <f>+H19+H20</f>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="1">
+    <nc r="K12">
+      <f>SUM(H12:H17)</f>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="1">
+    <nc r="H25">
+      <f>H21-K12</f>
+    </nc>
+  </rcc>
+  <rrc rId="70" sId="1" eol="1" ref="A26:XFD26" action="insertRow"/>
+  <rcc rId="71" sId="1">
+    <nc r="H26">
+      <f>H25-2500</f>
+    </nc>
+  </rcc>
+  <rcc rId="72" sId="1">
+    <oc r="H19">
+      <f>SUM(H3:H17)</f>
+    </oc>
+    <nc r="H19">
+      <f>SUM(H3:H17)</f>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{BBB31725-05B7-40C6-9A9C-DB847EAD65B5}" name="Dhamdhawach Horsuwan" id="-593361948" dateTime="2018-06-02T18:41:28"/>
-  <userInfo guid="{1EDE486C-71CA-4FD7-9945-39D843E82F47}" name="Windows User" id="-1378402384" dateTime="2018-06-02T20:41:13"/>
 </users>
 </file>
 
@@ -855,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,7 +934,7 @@
     <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>20</v>
       </c>
@@ -879,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -922,7 +985,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -945,7 +1008,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -968,7 +1031,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -984,14 +1047,14 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1014,7 +1077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1039,7 +1102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1062,7 +1125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1085,7 +1148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1110,8 +1173,12 @@
         <f>F12*G12</f>
         <v>260</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <f>SUM(H12:H17)</f>
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1137,7 +1204,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1163,7 +1230,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1189,7 +1256,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1241,17 +1308,43 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H19">
         <f>SUM(H3:H17)</f>
-        <v>23396</v>
+        <v>15428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f>+H19+H20</f>
+        <v>22328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f>H21-K12</f>
+        <v>18692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f>H25-2500</f>
+        <v>16192</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F9AACD21-9FFA-4BD3-9A49-A65456E0538E}">
-      <selection activeCell="E23" sqref="E23"/>
+    <customSheetView guid="{DDE6B254-1806-443C-B54D-6572A60698CE}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DDE6B254-1806-443C-B54D-6572A60698CE}">
+    <customSheetView guid="{F9AACD21-9FFA-4BD3-9A49-A65456E0538E}">
+      <selection activeCell="E23" sqref="E23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
